--- a/public/excelTemplates/Nhap_Du_Lieu_Tong.xlsx
+++ b/public/excelTemplates/Nhap_Du_Lieu_Tong.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\DQ_Admin_Panel_Project\DQ_Admin_Panel\public\excelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8705EF-75A2-48EA-94B6-52C861CAC6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F550AF53-8437-4B26-B065-B5A3BC568736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{56748950-8610-46D1-8F15-23048271DE89}"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng nhập" sheetId="1" r:id="rId1"/>
+    <sheet name="Mẫu nhập và lưu ý" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>Ngày</t>
   </si>
@@ -57,13 +58,52 @@
   </si>
   <si>
     <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>34,4</t>
+  </si>
+  <si>
+    <t>32,12</t>
+  </si>
+  <si>
+    <t>34,5</t>
+  </si>
+  <si>
+    <t>32,3</t>
+  </si>
+  <si>
+    <t>Lưu ý chung</t>
+  </si>
+  <si>
+    <t>32,8</t>
+  </si>
+  <si>
+    <t>31,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chỉ nhập các dữ liệu bên trong bảng! </t>
+  </si>
+  <si>
+    <t>Bắt buộc các trường</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Format: dd/mm/yyyy. Khi nhập ngày 0-/0-/yyyy, có thể nó sẽ lược bỏ số 0. Không có vấn đề, giữ nguyên!</t>
+  </si>
+  <si>
+    <t>Không được số âm</t>
+  </si>
+  <si>
+    <t>0 &gt; x &lt; 100. Đơn vị thập phân (Ví dụ: 32,43)</t>
+  </si>
+  <si>
+    <t>Ghi đánh giá hoặc lưu ý</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,18 +114,59 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB8A7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -100,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
@@ -113,45 +194,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
+  <dxfs count="18">
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -165,19 +264,77 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor theme="3" tint="0.499984740745262"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -198,18 +355,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9329225E-E6BD-43F8-BDAE-4720A807446C}" name="Table2" displayName="Table2" ref="A1:G888" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9329225E-E6BD-43F8-BDAE-4720A807446C}" name="Table2" displayName="Table2" ref="A1:G888" totalsRowShown="0" headerRowDxfId="9" dataDxfId="17">
   <autoFilter ref="A1:G888" xr:uid="{9329225E-E6BD-43F8-BDAE-4720A807446C}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{55A90AAE-3976-4329-BB21-1234060ED550}" name="Ngày" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{722B173B-8931-4470-8BB6-D4166662EB98}" name="Số lượng mủ nước" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{5DF5B330-A6C3-4403-A445-F4CE820D7683}" name="Hàm lượng mủ nước" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{3B94ABD6-50DC-4F1B-A015-EF3C9C602A9F}" name="Số lượng mủ tạp" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{64B4796F-6D0D-4512-BA6E-C82F4D9D29AB}" name="Số lượng mủ ké" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{4732C589-6E4A-4B40-AEC2-4901675CCD75}" name="Hàm lượng mủ ké" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{CB804DB2-CC58-4DF7-84EF-DF6D04F2FD60}" name="Ghi chú" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{55A90AAE-3976-4329-BB21-1234060ED550}" name="Ngày" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{722B173B-8931-4470-8BB6-D4166662EB98}" name="Số lượng mủ nước" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{5DF5B330-A6C3-4403-A445-F4CE820D7683}" name="Hàm lượng mủ nước" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{3B94ABD6-50DC-4F1B-A015-EF3C9C602A9F}" name="Số lượng mủ tạp" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{64B4796F-6D0D-4512-BA6E-C82F4D9D29AB}" name="Số lượng mủ ké" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{4732C589-6E4A-4B40-AEC2-4901675CCD75}" name="Hàm lượng mủ ké" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{CB804DB2-CC58-4DF7-84EF-DF6D04F2FD60}" name="Ghi chú" dataDxfId="10"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0AC39524-79ED-40FF-80BF-F0A3C4FFA95E}" name="Table22" displayName="Table22" ref="A1:G888" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G888" xr:uid="{0AC39524-79ED-40FF-80BF-F0A3C4FFA95E}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{8E579789-CF00-43CD-81CC-3FB9FE609328}" name="Ngày" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{C3E35F1C-0F5B-4B4F-98C3-5B8C98FA9D6A}" name="Số lượng mủ nước" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{6F32E57F-0418-44CD-9A74-111D1F939CB9}" name="Hàm lượng mủ nước" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{A68D3F30-AB11-4C7A-9FA0-5DFAF4AFF350}" name="Số lượng mủ tạp" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{2AAAF627-E878-43BE-A8CC-D66BA34436BD}" name="Số lượng mủ ké" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{DBF02523-5034-4FE7-AECB-959FD0C2D232}" name="Hàm lượng mủ ké" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{E4BAD792-44F5-4653-82A3-430F514BBA19}" name="Ghi chú" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -533,7 +706,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,11 +930,201 @@
       <c r="K30" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1rxCerga2z3NqvkkzdZu39/vUgTkJZWlv/DA9LWLSL6+3C6V8Mg3P58p146q+zkJiIMYgOoXp7qpb4IQbdhUMA==" saltValue="CWyhyWds2GSNAadYx4oCTA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="o45J17GNi9ShE+3zX4rMn7dKMhjcWgs1Jd4CIfdFuyjBsadbNtlbAL17lA1XXviev6shtVLOWEckEVRFrEeW3g==" saltValue="CTZSU2dLFxushQqu5VaPog==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" sort="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1BC775-3A74-474B-B1F8-1ED66F8D8812}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="5"/>
+    <col min="10" max="10" width="19" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="93.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>45658</v>
+      </c>
+      <c r="B2" s="5">
+        <v>87</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5">
+        <v>39</v>
+      </c>
+      <c r="E2" s="5">
+        <v>39</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>45659</v>
+      </c>
+      <c r="B3" s="5">
+        <v>90</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>32</v>
+      </c>
+      <c r="E3" s="5">
+        <v>38</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>45660</v>
+      </c>
+      <c r="B4" s="5">
+        <v>78</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5">
+        <v>43</v>
+      </c>
+      <c r="E4" s="5">
+        <v>43</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="WYLi32bBcdiU3e8FBzrvAbZIJHyYtDPhEmmKM82WtCxrWrQoJ7NbHGs9BxjMB8dcf/eNhX1oPF2rnKBvxTd84g==" saltValue="6YGKpsxBmcYhpHAfbBo+yQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="3">
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>